--- a/ORIGINAL/JUGADORES.xlsx
+++ b/ORIGINAL/JUGADORES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="10755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,21 +37,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Alero</t>
-  </si>
-  <si>
-    <t>Pivot</t>
-  </si>
-  <si>
-    <t>Ala-Pivot</t>
-  </si>
-  <si>
-    <t>Escolta</t>
-  </si>
-  <si>
     <t>IMC</t>
   </si>
   <si>
@@ -86,6 +71,21 @@
   </si>
   <si>
     <t>P10</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>23</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>18</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>23</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>23</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>22</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>18</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>22</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>19</v>
@@ -695,15 +695,15 @@
         <v>27.221534809727025</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>22</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>24</v>
